--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_25.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1110993.908143894</v>
+        <v>1118126.030033248</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797656</v>
+        <v>14829673.35797655</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="F2" t="n">
-        <v>153.7680905114898</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -713,13 +713,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -786,16 +786,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>196.2369034892017</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>205.5178444382804</v>
+        <v>119.3034809802377</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>37.10634673358873</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.211010870930394</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>205.5178444382804</v>
+        <v>199.4261177940757</v>
       </c>
       <c r="G5" t="n">
-        <v>205.5178444382804</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -981,7 +981,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>65.92594433429058</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -996,7 +996,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>7.692106705274854</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,73 +1130,73 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>158.841334124391</v>
       </c>
       <c r="C8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="U8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G8" t="n">
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>120.0500723064956</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>90.87689320356449</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G10" t="n">
-        <v>37.10634673358873</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>9.211010870930398</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V11" t="n">
-        <v>21.16030022554292</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -1467,7 +1467,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1500,13 +1500,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>196.6610411384493</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>85.80043703055084</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>205.5178444382804</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="G14" t="n">
         <v>205.5178444382804</v>
@@ -1625,10 +1625,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1686,28 +1686,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>120.0500723064956</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1850,10 +1850,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>71.01467844038818</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
@@ -1865,7 +1865,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,10 +1886,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>120.1832748619387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2093,16 +2093,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,13 +2123,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2141,10 +2141,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,25 +2157,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>3.249728832748761</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>63.88882306452232</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,22 +2205,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2278,16 +2278,16 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2318,13 +2318,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2372,13 +2372,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2406,19 +2406,19 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>7.833310151694002</v>
       </c>
       <c r="I24" t="n">
-        <v>65.50692648100205</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2606,19 +2606,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2649,13 +2649,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>20.00655925198969</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2697,7 +2697,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>74.49518425430648</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2792,28 +2792,28 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>71.01467844038824</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,13 +2834,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2877,22 +2877,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>82.71243518046261</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -2931,10 +2931,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0.8731252940988786</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,28 +3074,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>51.72215467797748</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3105,19 +3105,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3126,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>56.69886123260541</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>234.9894062428219</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3190,10 +3190,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3263,67 +3263,67 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H35" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>70.63127589868714</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3354,13 +3354,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3405,13 +3405,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>65.62171707681784</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3503,20 +3503,20 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F38" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
@@ -3545,16 +3545,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3563,10 +3563,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3582,16 +3582,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>24.56429142381693</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3630,13 +3630,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3645,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3737,76 +3737,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>119.8469440170073</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3831,13 +3831,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>47.56236756839566</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="43">
@@ -3904,46 +3904,46 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3974,73 +3974,73 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
+      <c r="X44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>205.5178444382804</v>
@@ -4065,16 +4065,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>70.63583960161013</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>9.336946277399601</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -4110,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="46">
@@ -4177,10 +4177,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>199.2900309704538</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C2" t="n">
-        <v>199.2900309704538</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D2" t="n">
-        <v>199.2900309704538</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E2" t="n">
-        <v>199.2900309704538</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="F2" t="n">
-        <v>43.96872742349432</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="G2" t="n">
-        <v>28.51141680214578</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H2" t="n">
-        <v>28.51141680214578</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I2" t="n">
         <v>28.51141680214578</v>
@@ -4334,10 +4334,10 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
         <v>583.2163723184226</v>
@@ -4361,19 +4361,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>406.8838132313431</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>199.2900309704538</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X2" t="n">
-        <v>199.2900309704538</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y2" t="n">
-        <v>199.2900309704538</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C3" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D3" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E3" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F3" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G3" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H3" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I3" t="n">
         <v>17.19556020784815</v>
@@ -4413,16 +4413,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>163.1080096386462</v>
+        <v>142.2888212580996</v>
       </c>
       <c r="M3" t="n">
-        <v>366.5706756325438</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N3" t="n">
-        <v>570.0333416264414</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P3" t="n">
         <v>752.6768192397923</v>
@@ -4434,25 +4434,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>720.9018483060073</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T3" t="n">
-        <v>720.9018483060073</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U3" t="n">
-        <v>522.6827538724702</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V3" t="n">
-        <v>315.088971611581</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="W3" t="n">
-        <v>315.088971611581</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="X3" t="n">
-        <v>315.088971611581</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y3" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>110.7436296931158</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
         <v>16.44142755506243</v>
@@ -4507,31 +4507,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R4" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="S4" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="T4" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="U4" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="V4" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="W4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>453.0030327087026</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C5" t="n">
-        <v>443.6989813239244</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="D5" t="n">
-        <v>443.6989813239244</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="E5" t="n">
-        <v>443.6989813239244</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="F5" t="n">
-        <v>236.1051990630351</v>
+        <v>43.96872742349432</v>
       </c>
       <c r="G5" t="n">
         <v>28.51141680214578</v>
@@ -4577,7 +4577,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
         <v>732.4113224610707</v>
@@ -4604,13 +4604,13 @@
         <v>660.5968149695918</v>
       </c>
       <c r="W5" t="n">
-        <v>660.5968149695918</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X5" t="n">
         <v>453.0030327087026</v>
       </c>
       <c r="Y5" t="n">
-        <v>453.0030327087026</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>814.3015730003187</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="C6" t="n">
-        <v>814.3015730003187</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="D6" t="n">
-        <v>665.3671633390675</v>
+        <v>571.967438644756</v>
       </c>
       <c r="E6" t="n">
-        <v>506.1297083336119</v>
+        <v>505.3755756808262</v>
       </c>
       <c r="F6" t="n">
-        <v>359.5951503604969</v>
+        <v>358.8410177077111</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8643249431123</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="H6" t="n">
-        <v>107.4951893506917</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4653,43 +4653,43 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9652341458732</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>814.3015730003187</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>814.3015730003187</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>814.3015730003187</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U6" t="n">
-        <v>814.3015730003187</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V6" t="n">
-        <v>814.3015730003187</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W6" t="n">
-        <v>814.3015730003187</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X6" t="n">
-        <v>814.3015730003187</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y6" t="n">
-        <v>814.3015730003187</v>
+        <v>720.9018483060073</v>
       </c>
     </row>
     <row r="7">
@@ -4747,28 +4747,28 @@
         <v>148.224788009872</v>
       </c>
       <c r="R7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>822.0713777531216</v>
+        <v>38.84423892561444</v>
       </c>
       <c r="C8" t="n">
-        <v>639.2227743377304</v>
+        <v>38.84423892561444</v>
       </c>
       <c r="D8" t="n">
-        <v>431.628992076841</v>
+        <v>38.84423892561444</v>
       </c>
       <c r="E8" t="n">
-        <v>431.628992076841</v>
+        <v>38.84423892561444</v>
       </c>
       <c r="F8" t="n">
-        <v>224.0352098159517</v>
+        <v>31.89873817641097</v>
       </c>
       <c r="G8" t="n">
         <v>16.44142755506243</v>
@@ -4811,13 +4811,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4832,22 +4832,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X8" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y8" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="C9" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4887,46 +4887,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>232.5025681519757</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M9" t="n">
-        <v>435.9652341458732</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N9" t="n">
-        <v>639.4279001397708</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V9" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W9" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X9" t="n">
-        <v>224.0352098159517</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>110.7436296931158</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>110.7436296931158</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>110.7436296931158</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
         <v>16.44142755506243</v>
@@ -4978,34 +4978,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
         <v>176.2910403306274</v>
@@ -5072,19 +5072,19 @@
         <v>245.4092504478133</v>
       </c>
       <c r="U11" t="n">
+        <v>245.4092504478133</v>
+      </c>
+      <c r="V11" t="n">
+        <v>245.4092504478133</v>
+      </c>
+      <c r="W11" t="n">
+        <v>245.4092504478133</v>
+      </c>
+      <c r="X11" t="n">
+        <v>245.4092504478133</v>
+      </c>
+      <c r="Y11" t="n">
         <v>37.81546818692397</v>
-      </c>
-      <c r="V11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="W11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="X11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>359.5951503604969</v>
+        <v>415.8300791907684</v>
       </c>
       <c r="C12" t="n">
-        <v>359.5951503604969</v>
+        <v>415.8300791907684</v>
       </c>
       <c r="D12" t="n">
-        <v>359.5951503604969</v>
+        <v>415.8300791907684</v>
       </c>
       <c r="E12" t="n">
-        <v>359.5951503604969</v>
+        <v>415.8300791907684</v>
       </c>
       <c r="F12" t="n">
-        <v>359.5951503604969</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8643249431123</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I12" t="n">
         <v>17.19556020784815</v>
@@ -5148,22 +5148,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>623.4238614516577</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>415.8300791907684</v>
       </c>
       <c r="V12" t="n">
-        <v>735.4042696414541</v>
+        <v>415.8300791907684</v>
       </c>
       <c r="W12" t="n">
-        <v>735.4042696414541</v>
+        <v>415.8300791907684</v>
       </c>
       <c r="X12" t="n">
-        <v>735.4042696414541</v>
+        <v>415.8300791907684</v>
       </c>
       <c r="Y12" t="n">
-        <v>527.8104873805648</v>
+        <v>415.8300791907684</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J13" t="n">
         <v>38.93586374282289</v>
@@ -5215,34 +5215,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="14">
@@ -5264,16 +5264,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5282,10 +5282,10 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
         <v>583.2163723184226</v>
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M15" t="n">
-        <v>548.724319600695</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N15" t="n">
-        <v>570.0333416264414</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J16" t="n">
         <v>38.93586374282289</v>
@@ -5452,34 +5452,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E17" t="n">
-        <v>962.2293816994886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="F17" t="n">
-        <v>718.7806050553886</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>842.6599081753446</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="C18" t="n">
-        <v>668.2068788942177</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
         <v>668.2068788942177</v>
@@ -5604,13 +5604,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5625,19 +5625,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="Y18" t="n">
-        <v>842.6599081753446</v>
+        <v>817.1412885554689</v>
       </c>
     </row>
     <row r="19">
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C19" t="n">
         <v>19.28114311021272</v>
@@ -5707,16 +5707,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>710.516763498309</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C20" t="n">
-        <v>710.516763498309</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D20" t="n">
-        <v>710.516763498309</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E20" t="n">
-        <v>710.516763498309</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F20" t="n">
-        <v>710.516763498309</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G20" t="n">
-        <v>467.067986854209</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="H20" t="n">
-        <v>223.6192102101089</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W20" t="n">
-        <v>953.9655401424092</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X20" t="n">
-        <v>710.516763498309</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y20" t="n">
-        <v>710.516763498309</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>83.81530782185143</v>
+        <v>492.48569440222</v>
       </c>
       <c r="C21" t="n">
-        <v>83.81530782185143</v>
+        <v>318.0326651210929</v>
       </c>
       <c r="D21" t="n">
-        <v>83.81530782185143</v>
+        <v>169.0982554598417</v>
       </c>
       <c r="E21" t="n">
-        <v>83.81530782185143</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F21" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5841,7 +5841,7 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U21" t="n">
-        <v>562.4161926976942</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V21" t="n">
-        <v>327.2640844659515</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W21" t="n">
-        <v>83.81530782185143</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X21" t="n">
-        <v>83.81530782185143</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y21" t="n">
-        <v>83.81530782185143</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="22">
@@ -5926,13 +5926,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S22" t="n">
         <v>19.28114311021272</v>
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
         <v>19.28114311021272</v>
@@ -6020,19 +6020,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6042,40 +6042,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>512.7568786610034</v>
+        <v>486.9119902784999</v>
       </c>
       <c r="C24" t="n">
-        <v>338.3038493798764</v>
+        <v>312.4589609973729</v>
       </c>
       <c r="D24" t="n">
-        <v>338.3038493798764</v>
+        <v>312.4589609973729</v>
       </c>
       <c r="E24" t="n">
-        <v>338.3038493798764</v>
+        <v>312.4589609973729</v>
       </c>
       <c r="F24" t="n">
-        <v>338.3038493798764</v>
+        <v>165.9244030242578</v>
       </c>
       <c r="G24" t="n">
-        <v>199.5730239624919</v>
+        <v>27.19357760687333</v>
       </c>
       <c r="H24" t="n">
-        <v>86.20388837007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W24" t="n">
-        <v>720.6083788665362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X24" t="n">
-        <v>512.7568786610034</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y24" t="n">
-        <v>512.7568786610034</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6254,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X26" t="n">
-        <v>19.28114311021272</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>738.7078125165641</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>304.9965798960495</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C27" t="n">
-        <v>130.5435506149225</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D27" t="n">
-        <v>130.5435506149225</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>130.5435506149225</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>130.5435506149225</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>130.5435506149225</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
+        <v>487.8483949674443</v>
+      </c>
+      <c r="N27" t="n">
         <v>542.809531908403</v>
-      </c>
-      <c r="N27" t="n">
-        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W27" t="n">
-        <v>720.6083788665362</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X27" t="n">
-        <v>512.7568786610034</v>
+        <v>544.1911885564859</v>
       </c>
       <c r="Y27" t="n">
-        <v>304.9965798960495</v>
+        <v>336.430889791532</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>110.334904905842</v>
+        <v>660.701031422288</v>
       </c>
       <c r="C30" t="n">
-        <v>110.334904905842</v>
+        <v>660.701031422288</v>
       </c>
       <c r="D30" t="n">
-        <v>110.334904905842</v>
+        <v>660.701031422288</v>
       </c>
       <c r="E30" t="n">
-        <v>110.334904905842</v>
+        <v>501.4635764168325</v>
       </c>
       <c r="F30" t="n">
-        <v>110.334904905842</v>
+        <v>354.9290184437175</v>
       </c>
       <c r="G30" t="n">
-        <v>110.334904905842</v>
+        <v>216.198193026333</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>102.8290574339123</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,10 +6546,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6567,25 +6567,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U30" t="n">
-        <v>487.2836868729568</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V30" t="n">
-        <v>487.2836868729568</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W30" t="n">
-        <v>486.4017421314428</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X30" t="n">
-        <v>278.55024192591</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y30" t="n">
-        <v>278.55024192591</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="31">
@@ -6637,31 +6637,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
         <v>19.28114311021272</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>231.8830517671884</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="C32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6722,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>911.8125548258105</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>700.6811714053606</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>475.3318284112885</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U32" t="n">
-        <v>475.3318284112885</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V32" t="n">
-        <v>231.8830517671884</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W32" t="n">
-        <v>231.8830517671884</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X32" t="n">
-        <v>231.8830517671884</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y32" t="n">
-        <v>231.8830517671884</v>
+        <v>22.57944215788615</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>251.7598820467572</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="C33" t="n">
-        <v>77.30685276563017</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="D33" t="n">
-        <v>77.30685276563017</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E33" t="n">
-        <v>77.30685276563017</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F33" t="n">
-        <v>77.30685276563017</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>77.30685276563017</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>77.30685276563017</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6786,7 +6786,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
         <v>542.809531908403</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V33" t="n">
-        <v>627.7355178317791</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W33" t="n">
-        <v>627.7355178317791</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="X33" t="n">
-        <v>627.7355178317791</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="Y33" t="n">
-        <v>419.9752190668252</v>
+        <v>325.0531560887832</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C35" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D35" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6971,16 +6971,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>489.203140025706</v>
+        <v>352.9294114938717</v>
       </c>
       <c r="C36" t="n">
-        <v>314.750110744579</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="D36" t="n">
-        <v>165.8157010833278</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E36" t="n">
-        <v>165.8157010833278</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7020,19 +7020,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7041,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>555.4877027295624</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W36" t="n">
-        <v>489.203140025706</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X36" t="n">
-        <v>489.203140025706</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y36" t="n">
-        <v>489.203140025706</v>
+        <v>521.1447485139397</v>
       </c>
     </row>
     <row r="37">
@@ -7120,7 +7120,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
         <v>19.28114311021272</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>325.7766548071333</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>325.7766548071333</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>82.32787816303323</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T38" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U38" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W38" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>352.2654233565326</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>203.3310136952813</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>44.09355868982578</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7257,19 +7257,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M39" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7278,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>360.2295980564601</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V39" t="n">
-        <v>125.0774898247174</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W39" t="n">
-        <v>125.0774898247174</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>526.7184526376595</v>
       </c>
     </row>
     <row r="40">
@@ -7354,13 +7354,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
         <v>829.5248650203655</v>
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D41" t="n">
         <v>16.44142755506243</v>
@@ -7424,37 +7424,37 @@
         <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U41" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V41" t="n">
-        <v>604.3859801240053</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W41" t="n">
-        <v>396.792197863116</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X41" t="n">
-        <v>396.792197863116</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.792197863116</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>358.8410177077111</v>
+        <v>137.4989467641607</v>
       </c>
       <c r="C42" t="n">
-        <v>358.8410177077111</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>358.8410177077111</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>358.8410177077111</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>358.8410177077111</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>220.1101922903266</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
         <v>16.44142755506243</v>
@@ -7494,16 +7494,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>16.44142755506243</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>163.1080096386462</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
-        <v>366.5706756325438</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O42" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P42" t="n">
         <v>752.6768192397923</v>
@@ -7512,28 +7512,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T42" t="n">
-        <v>774.0285822294896</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U42" t="n">
-        <v>774.0285822294896</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V42" t="n">
-        <v>774.0285822294896</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W42" t="n">
-        <v>566.4347999686004</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X42" t="n">
-        <v>358.8410177077111</v>
+        <v>513.308066045118</v>
       </c>
       <c r="Y42" t="n">
-        <v>358.8410177077111</v>
+        <v>305.7142837842288</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
         <v>16.44142755506243</v>
@@ -7649,16 +7649,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
         <v>732.4113224610707</v>
@@ -7676,22 +7676,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V44" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W44" t="n">
-        <v>406.8838132313431</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X44" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y44" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>339.8907214957869</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="C45" t="n">
-        <v>339.8907214957869</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="D45" t="n">
-        <v>339.8907214957869</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="E45" t="n">
-        <v>339.8907214957869</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="F45" t="n">
-        <v>268.5413885648676</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="G45" t="n">
-        <v>129.8105631474831</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="I45" t="n">
         <v>16.44142755506243</v>
@@ -7728,49 +7728,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>29.03990215807806</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>232.5025681519757</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T45" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U45" t="n">
-        <v>339.8907214957869</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V45" t="n">
-        <v>339.8907214957869</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="W45" t="n">
-        <v>339.8907214957869</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="X45" t="n">
-        <v>339.8907214957869</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="Y45" t="n">
-        <v>339.8907214957869</v>
+        <v>25.87268642112264</v>
       </c>
     </row>
     <row r="46">
@@ -7825,16 +7825,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q46" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
         <v>16.44142755506243</v>
@@ -7982,13 +7982,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -8061,7 +8061,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7024424905649</v>
+        <v>265.6729592778915</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8070,10 +8070,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8225,10 +8225,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8301,19 +8301,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8459,16 +8459,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,22 +8535,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>230.174158102173</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,10 +8690,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>293.1751087726566</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M11" t="n">
         <v>435.8640776655532</v>
@@ -8930,13 +8930,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9252,16 +9252,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9489,10 +9489,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9954,19 +9954,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10194,13 +10194,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10434,10 +10434,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10668,7 +10668,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10677,13 +10677,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,10 +10905,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M39" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11072,10 +11072,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>346.8797879011645</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,19 +11142,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>258.4602915813506</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11297,10 +11297,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
@@ -11309,7 +11309,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11376,16 +11376,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>151.2801117021122</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23276,10 +23276,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>201.2648786994755</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23312,10 +23312,10 @@
         <v>17.57800512585095</v>
       </c>
       <c r="U11" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>306.591958244592</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23324,7 +23324,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23334,7 +23334,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23346,7 +23346,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23355,7 +23355,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23388,13 +23388,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>3.503687556372313</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>147.0001501188744</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23403,7 +23403,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23434,10 +23434,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23455,13 +23455,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23504,7 +23504,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>237.8052177150866</v>
       </c>
       <c r="G14" t="n">
         <v>209.7848930768546</v>
@@ -23513,10 +23513,10 @@
         <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>29.45577218916847</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23574,28 +23574,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,19 +23619,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>112.7505148429297</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23671,10 +23671,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23738,10 +23738,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>335.8613673013232</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
@@ -23753,7 +23753,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,10 +23774,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23811,10 +23811,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23865,7 +23865,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>80.4946737953592</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23877,7 +23877,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>85.4994209153657</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23947,7 +23947,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23972,7 +23972,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23981,16 +23981,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>8.683973297415827</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,13 +24011,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24029,10 +24029,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,25 +24045,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>154.3953516226522</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>48.34662117197414</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24093,22 +24093,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24166,16 +24166,16 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>93.55107118671071</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24206,13 +24206,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24260,13 +24260,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V23" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24294,19 +24294,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>104.4021340848025</v>
       </c>
       <c r="I24" t="n">
-        <v>23.88970637041302</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,7 +24330,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24345,13 +24345,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24427,7 +24427,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,13 +24440,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24455,7 +24455,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>185.0989125581653</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24494,19 +24494,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,13 +24519,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24537,13 +24537,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>92.22888498450678</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24585,7 +24585,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>131.277800949171</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24680,28 +24680,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>268.4601236753789</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,13 +24722,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>146.6038018839531</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24743,7 +24743,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,7 +24756,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24765,22 +24765,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>6.684197670952472</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,7 +24807,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24819,10 +24819,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>250.8218578668207</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24877,7 +24877,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
@@ -24886,7 +24886,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>93.55107118671071</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24917,7 +24917,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>362.0075757138109</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24935,7 +24935,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24962,28 +24962,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>98.14696326317221</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,19 +24993,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25014,10 +25014,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>32.69777161880967</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,28 +25041,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>16.70557691809773</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25078,10 +25078,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25151,25 +25151,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25211,7 +25211,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25230,10 +25230,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>102.0772230896286</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25242,13 +25242,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25281,7 +25281,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25293,13 +25293,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>186.0732660841018</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25360,10 +25360,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25391,19 +25391,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>344.4597780394191</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25433,16 +25433,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25451,10 +25451,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25470,16 +25470,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>120.504920969567</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25518,13 +25518,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25533,7 +25533,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>101.0346019561178</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25594,7 +25594,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25603,7 +25603,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25625,13 +25625,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>211.7044234967879</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25682,19 +25682,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
         <v>122.2344140318545</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>205.2178212748161</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>52.86155497130842</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25719,13 +25719,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25752,13 +25752,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>152.6023611264259</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25767,13 +25767,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="43">
@@ -25792,7 +25792,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25831,7 +25831,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>201.7137242822431</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,7 +25874,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25916,7 +25916,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25925,10 +25925,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>168.2208513361757</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y44" t="n">
         <v>180.7200942177732</v>
@@ -25953,16 +25953,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>74.43337279177375</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>80.05968657401547</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -25998,19 +25998,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26065,10 +26065,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>130.2684670434959</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26077,7 +26077,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>394649.1754225603</v>
+        <v>394649.1754225602</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>415699.4060536904</v>
+        <v>415699.4060536902</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>415699.4060536904</v>
+        <v>415699.4060536902</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>415699.4060536904</v>
+        <v>415699.4060536902</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>415699.4060536904</v>
+        <v>415699.4060536902</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>394649.1754225603</v>
+        <v>394649.1754225602</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
         <v>513151.1061651771</v>
@@ -26320,13 +26320,13 @@
         <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>197197.0522936645</v>
+        <v>197197.0522936644</v>
       </c>
       <c r="F2" t="n">
         <v>197197.0522936645</v>
       </c>
       <c r="G2" t="n">
-        <v>207700.8406641654</v>
+        <v>207700.8406641655</v>
       </c>
       <c r="H2" t="n">
         <v>207700.8406641654</v>
@@ -26338,13 +26338,13 @@
         <v>207700.8406641654</v>
       </c>
       <c r="K2" t="n">
-        <v>207700.8406641654</v>
+        <v>207700.8406641655</v>
       </c>
       <c r="L2" t="n">
         <v>207700.8406641654</v>
       </c>
       <c r="M2" t="n">
-        <v>207700.8406641655</v>
+        <v>207700.8406641654</v>
       </c>
       <c r="N2" t="n">
         <v>207700.8406641654</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>329219.0235480686</v>
+        <v>328386.1670003451</v>
       </c>
       <c r="C4" t="n">
-        <v>329219.0235480686</v>
+        <v>328386.1670003452</v>
       </c>
       <c r="D4" t="n">
-        <v>329219.0235480686</v>
+        <v>328386.1670003452</v>
       </c>
       <c r="E4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="F4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="G4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="H4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="I4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="J4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="K4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="L4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589614</v>
       </c>
       <c r="M4" t="n">
-        <v>42895.25425991549</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="N4" t="n">
-        <v>42895.2542599155</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="O4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
       <c r="P4" t="n">
-        <v>40681.1494006205</v>
+        <v>39848.29285289707</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68935.24109357133</v>
+        <v>69768.09764129476</v>
       </c>
       <c r="C6" t="n">
-        <v>137808.9976752611</v>
+        <v>138641.8542229845</v>
       </c>
       <c r="D6" t="n">
-        <v>137808.997675261</v>
+        <v>138641.8542229845</v>
       </c>
       <c r="E6" t="n">
-        <v>144020.4179511965</v>
+        <v>144853.2744989199</v>
       </c>
       <c r="F6" t="n">
-        <v>144020.4179511965</v>
+        <v>144853.27449892</v>
       </c>
       <c r="G6" t="n">
-        <v>140422.8746663212</v>
+        <v>141300.7035703406</v>
       </c>
       <c r="H6" t="n">
-        <v>150151.9176404882</v>
+        <v>151029.7465445076</v>
       </c>
       <c r="I6" t="n">
-        <v>150151.9176404882</v>
+        <v>151029.7465445076</v>
       </c>
       <c r="J6" t="n">
-        <v>96379.40675027884</v>
+        <v>97257.23565429817</v>
       </c>
       <c r="K6" t="n">
-        <v>150151.9176404883</v>
+        <v>151029.7465445077</v>
       </c>
       <c r="L6" t="n">
-        <v>150151.9176404883</v>
+        <v>151029.7465445076</v>
       </c>
       <c r="M6" t="n">
-        <v>150151.9176404883</v>
+        <v>151029.7465445076</v>
       </c>
       <c r="N6" t="n">
-        <v>150151.9176404883</v>
+        <v>151029.7465445076</v>
       </c>
       <c r="O6" t="n">
-        <v>144020.4179511966</v>
+        <v>144853.27449892</v>
       </c>
       <c r="P6" t="n">
-        <v>144020.4179511965</v>
+        <v>144853.27449892</v>
       </c>
     </row>
   </sheetData>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>212.8595420456369</v>
       </c>
       <c r="F2" t="n">
-        <v>253.1079552302216</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27476,7 +27476,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,16 +27506,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>29.70447859177312</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>113.4971061691875</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27555,10 +27555,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>118.3441281936695</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>242.2195147380239</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>356.0618809000771</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,10 +27625,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>201.358201303431</v>
+        <v>207.4499279476357</v>
       </c>
       <c r="G5" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="6">
@@ -27701,7 +27701,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>91.71913612111037</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27716,7 +27716,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>92.46572744736828</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49.36645333167579</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27819,7 +27819,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690797</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>223.8925075390896</v>
       </c>
       <c r="C8" t="n">
-        <v>184.2527743897702</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27904,10 +27904,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27950,10 +27950,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,28 +27977,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>105.8913097744792</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>114.896091999913</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28020,10 +28020,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G10" t="n">
-        <v>130.88463262487</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28032,7 +28032,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -34702,13 +34702,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34781,7 +34781,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>148.1480627106907</v>
+        <v>127.1185794980173</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34790,10 +34790,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34945,10 +34945,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35021,19 +35021,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,16 +35179,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,10 +35410,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>57.40869380266933</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M11" t="n">
         <v>205.5178444382804</v>
@@ -35650,13 +35650,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35972,16 +35972,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36209,10 +36209,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36674,19 +36674,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36914,13 +36914,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37154,10 +37154,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N33" t="n">
         <v>55.51629994036225</v>
-      </c>
-      <c r="N33" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37388,7 +37388,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37397,13 +37397,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>55.51629994036219</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,10 +37625,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M39" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37640,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37792,10 +37792,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>116.7815764794778</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,19 +37862,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>127.1185794980173</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38017,10 +38017,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
@@ -38029,7 +38029,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>12.72573192223801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
@@ -38114,7 +38114,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1118126.030033248</v>
+        <v>1119353.531399453</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797655</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6325896.727039702</v>
+        <v>6382266.350223302</v>
       </c>
     </row>
     <row r="11">
@@ -656,31 +658,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>205.5178444382804</v>
+        <v>31.83109803682869</v>
       </c>
       <c r="G2" t="n">
-        <v>205.5178444382804</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -783,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>46.38724422570588</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U3" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="V3" t="n">
-        <v>119.3034809802377</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>44.30348359856712</v>
+        <v>23.44046883036203</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>199.4261177940757</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>65.92594433429058</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -996,7 +998,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>130.4655268502615</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>158.841334124391</v>
+        <v>240.0192609915369</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>205.5178444382804</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1266,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>205.5178444382804</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V9" t="n">
-        <v>205.5178444382804</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>90.87689320356449</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1294,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1388,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>9.211010870930398</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,16 +1414,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="12">
@@ -1449,13 +1451,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1467,7 +1469,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1494,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>196.6610411384493</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -1616,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>169.0708280266249</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>205.5178444382804</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1686,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>120.0500723064956</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -1853,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>71.01467844038818</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
@@ -1865,7 +1867,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,10 +1888,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1923,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1977,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2002,58 +2004,58 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2081,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,16 +2162,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>121.9333552767668</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>3.249728832748761</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2220,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2239,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2278,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2318,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>241.0142888776591</v>
@@ -2372,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>212.285385643442</v>
       </c>
-      <c r="V23" t="n">
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2394,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -2412,10 +2414,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>7.833310151694002</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2463,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2476,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2518,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2558,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2679,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2697,10 +2699,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>74.49518425430648</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>115.6677505121453</v>
       </c>
     </row>
     <row r="28">
@@ -2716,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2801,19 +2803,19 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>71.01467844038824</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,22 +2836,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2877,19 +2879,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>82.71243518046261</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>104.2801141926743</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2989,16 +2991,16 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3026,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3044,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3117,10 +3119,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3129,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>167.5873293802472</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>234.9894062428219</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3193,58 +3195,58 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3266,11 +3268,11 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
+        <v>52.42556848774763</v>
+      </c>
+      <c r="D35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>212.2853856434421</v>
-      </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
@@ -3308,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3323,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,13 +3347,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>70.63127589868714</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3363,10 +3365,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>20.64425157461128</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3402,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3475,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3515,61 +3517,61 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R38" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S38" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T38" t="n">
-        <v>84.41978777916125</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,16 +3584,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>24.56429142381693</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3627,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3664,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3785,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,28 +3818,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>119.8469440170073</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>72.61088677903447</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3870,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3882,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3898,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3986,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>181.0201173812374</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X44" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4068,13 +4070,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>122.5422878399793</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>9.336946277399601</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>822.0713777531216</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="C2" t="n">
-        <v>822.0713777531216</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="D2" t="n">
-        <v>822.0713777531216</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="E2" t="n">
-        <v>651.2927635848137</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="F2" t="n">
-        <v>443.6989813239244</v>
+        <v>19.73831294214452</v>
       </c>
       <c r="G2" t="n">
-        <v>236.1051990630351</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H2" t="n">
-        <v>236.1051990630351</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J2" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W2" t="n">
-        <v>822.0713777531216</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="X2" t="n">
-        <v>822.0713777531216</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="Y2" t="n">
-        <v>822.0713777531216</v>
+        <v>159.9970564337892</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="C3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="D3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="E3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="F3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="G3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="H3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="J3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
-        <v>142.2888212580996</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="M3" t="n">
-        <v>345.7514872519972</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="N3" t="n">
-        <v>549.2141532458947</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="O3" t="n">
-        <v>752.6768192397923</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="Q3" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="T3" t="n">
-        <v>345.2979091154422</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="U3" t="n">
-        <v>137.7041268545529</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="V3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="W3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="X3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
-        <v>43.75555256277541</v>
+        <v>31.59512732850896</v>
       </c>
       <c r="M4" t="n">
-        <v>82.94359075499759</v>
+        <v>70.78316552073113</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6344414104339</v>
+        <v>114.4740161761674</v>
       </c>
       <c r="O4" t="n">
-        <v>150.9737180453332</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="R4" t="n">
-        <v>61.19242108896862</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="S4" t="n">
-        <v>61.19242108896862</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="T4" t="n">
-        <v>61.19242108896862</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="U4" t="n">
-        <v>61.19242108896862</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="V4" t="n">
-        <v>61.19242108896862</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>58.33406192680583</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>245.4092504478133</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C5" t="n">
-        <v>245.4092504478133</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D5" t="n">
-        <v>245.4092504478133</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E5" t="n">
-        <v>245.4092504478133</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F5" t="n">
-        <v>43.96872742349432</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>706.4576170384386</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>811.9797623848946</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>660.5968149695918</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>660.5968149695918</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>660.5968149695918</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>660.5968149695918</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>660.5968149695918</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>453.0030327087026</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>453.0030327087026</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y5" t="n">
-        <v>245.4092504478133</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C6" t="n">
-        <v>720.9018483060073</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>571.967438644756</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>505.3755756808262</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>358.8410177077111</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>220.1101922903266</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>106.7410566979059</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>570.0333416264414</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>148.224788009872</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38.84423892561444</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="C8" t="n">
-        <v>38.84423892561444</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D8" t="n">
-        <v>38.84423892561444</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E8" t="n">
-        <v>38.84423892561444</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F8" t="n">
-        <v>31.89873817641097</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T8" t="n">
-        <v>614.4775954922324</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U8" t="n">
-        <v>406.8838132313431</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V8" t="n">
-        <v>406.8838132313431</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W8" t="n">
-        <v>406.8838132313431</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X8" t="n">
-        <v>199.2900309704538</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="Y8" t="n">
-        <v>199.2900309704538</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>107.4951893506917</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>107.4951893506917</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>107.4951893506917</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>107.4951893506917</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>107.4951893506917</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>107.4951893506917</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>107.4951893506917</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M9" t="n">
-        <v>163.1080096386462</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>614.4775954922324</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V9" t="n">
-        <v>406.8838132313431</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W9" t="n">
-        <v>199.2900309704538</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X9" t="n">
-        <v>107.4951893506917</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y9" t="n">
-        <v>107.4951893506917</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>37.81546818692397</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>37.81546818692397</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>37.81546818692397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>37.81546818692397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>37.81546818692397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>37.81546818692397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>37.81546818692397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>176.2910403306274</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>811.9797623848946</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>660.5968149695918</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>453.0030327087026</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>245.4092504478133</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>245.4092504478133</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>245.4092504478133</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>245.4092504478133</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>245.4092504478133</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y11" t="n">
-        <v>37.81546818692397</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>415.8300791907684</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C12" t="n">
-        <v>415.8300791907684</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D12" t="n">
-        <v>415.8300791907684</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E12" t="n">
-        <v>415.8300791907684</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F12" t="n">
-        <v>269.2955212176533</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G12" t="n">
-        <v>130.5646958002688</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H12" t="n">
-        <v>17.19556020784815</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M12" t="n">
-        <v>548.724319600695</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N12" t="n">
-        <v>752.1869855945927</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>752.6768192397923</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>623.4238614516577</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>415.8300791907684</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V12" t="n">
-        <v>415.8300791907684</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W12" t="n">
-        <v>415.8300791907684</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X12" t="n">
-        <v>415.8300791907684</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y12" t="n">
-        <v>415.8300791907684</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F14" t="n">
-        <v>651.2927635848137</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G14" t="n">
-        <v>443.6989813239244</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H14" t="n">
-        <v>236.1051990630351</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J14" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C15" t="n">
-        <v>16.44142755506243</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D15" t="n">
-        <v>16.44142755506243</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E15" t="n">
-        <v>16.44142755506243</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F15" t="n">
-        <v>16.44142755506243</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>29.03990215807806</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>232.5025681519757</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>547.4845037566762</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>345.2979091154422</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>137.7041268545529</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X15" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,7 +5570,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>817.1412885554689</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
         <v>817.1412885554689</v>
@@ -5595,22 +5597,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N18" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5625,19 +5627,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>817.1412885554689</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>817.1412885554689</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>817.1412885554689</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>817.1412885554689</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>817.1412885554689</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5647,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
         <v>19.28114311021272</v>
@@ -5701,22 +5703,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>509.4769954460863</v>
       </c>
       <c r="C20" t="n">
-        <v>509.4769954460863</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D20" t="n">
         <v>266.0282188019862</v>
@@ -5741,7 +5743,7 @@
         <v>266.0282188019862</v>
       </c>
       <c r="G20" t="n">
-        <v>266.0282188019862</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H20" t="n">
         <v>22.57944215788615</v>
@@ -5789,10 +5791,10 @@
         <v>752.9257720901863</v>
       </c>
       <c r="W20" t="n">
-        <v>509.4769954460863</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X20" t="n">
-        <v>509.4769954460863</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y20" t="n">
         <v>509.4769954460863</v>
@@ -5805,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>492.48569440222</v>
+        <v>142.4461484402802</v>
       </c>
       <c r="C21" t="n">
-        <v>318.0326651210929</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>169.0982554598417</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
         <v>19.28114311021272</v>
@@ -5832,16 +5834,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
         <v>781.4136778972854</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>660.701031422288</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>660.701031422288</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V21" t="n">
-        <v>660.701031422288</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W21" t="n">
-        <v>660.701031422288</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X21" t="n">
-        <v>660.701031422288</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y21" t="n">
-        <v>660.701031422288</v>
+        <v>310.6614854603483</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
         <v>262.7299197543128</v>
@@ -6020,19 +6022,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V23" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W23" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="V23" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="W23" t="n">
-        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>486.9119902784999</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C24" t="n">
-        <v>312.4589609973729</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D24" t="n">
-        <v>312.4589609973729</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E24" t="n">
-        <v>312.4589609973729</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F24" t="n">
-        <v>165.9244030242578</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G24" t="n">
-        <v>27.19357760687333</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6075,7 +6077,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y24" t="n">
-        <v>655.1273272985679</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="25">
@@ -6121,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
         <v>19.28114311021272</v>
@@ -6166,31 +6168,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>251.810259228364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6256,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>738.7078125165641</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>168.215552771464</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C27" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
         <v>19.28114311021272</v>
@@ -6306,49 +6308,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V27" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W27" t="n">
-        <v>619.4388494194218</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X27" t="n">
-        <v>544.1911885564859</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="Y27" t="n">
-        <v>336.430889791532</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>559.1338160830064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>315.6850394389064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T29" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U29" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>660.701031422288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>660.701031422288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>660.701031422288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>501.4635764168325</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>354.9290184437175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>216.198193026333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>102.8290574339123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6546,46 +6548,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>858.7237068311672</v>
       </c>
       <c r="T30" t="n">
-        <v>660.701031422288</v>
+        <v>858.7237068311672</v>
       </c>
       <c r="U30" t="n">
-        <v>660.701031422288</v>
+        <v>630.5000885675563</v>
       </c>
       <c r="V30" t="n">
-        <v>660.701031422288</v>
+        <v>395.3479803358136</v>
       </c>
       <c r="W30" t="n">
-        <v>660.701031422288</v>
+        <v>395.3479803358136</v>
       </c>
       <c r="X30" t="n">
-        <v>660.701031422288</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y30" t="n">
-        <v>660.701031422288</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="31">
@@ -6637,13 +6639,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
         <v>19.28114311021272</v>
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>22.57944215788615</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>266.0282188019862</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>266.0282188019862</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>22.57944215788615</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>325.0531560887832</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="C33" t="n">
-        <v>325.0531560887832</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="D33" t="n">
-        <v>325.0531560887832</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="E33" t="n">
-        <v>165.8157010833278</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6789,7 +6791,7 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
         <v>781.4136778972854</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>562.4161926976942</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="V33" t="n">
-        <v>562.4161926976942</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="W33" t="n">
-        <v>325.0531560887832</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="X33" t="n">
-        <v>325.0531560887832</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="Y33" t="n">
-        <v>325.0531560887832</v>
+        <v>318.0035561858384</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
         <v>19.28114311021272</v>
@@ -6892,16 +6894,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>477.1596022224361</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C35" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>352.9294114938717</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="C36" t="n">
-        <v>281.5846883638847</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="D36" t="n">
-        <v>132.6502787026334</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="E36" t="n">
-        <v>132.6502787026334</v>
+        <v>154.2571907237133</v>
       </c>
       <c r="F36" t="n">
-        <v>132.6502787026334</v>
+        <v>154.2571907237133</v>
       </c>
       <c r="G36" t="n">
-        <v>132.6502787026334</v>
+        <v>154.2571907237133</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>40.88805513129266</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V36" t="n">
-        <v>728.9050472788936</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W36" t="n">
-        <v>728.9050472788936</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X36" t="n">
-        <v>728.9050472788936</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y36" t="n">
-        <v>521.1447485139397</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="37">
@@ -7123,7 +7125,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
         <v>19.28114311021272</v>
@@ -7151,16 +7153,16 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U38" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V38" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W38" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="X38" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="Y38" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="U38" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="V38" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="W38" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X38" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>526.7184526376595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>352.2654233565326</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>203.3310136952813</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>44.09355868982578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7254,49 +7256,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U39" t="n">
-        <v>761.8705608694022</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V39" t="n">
-        <v>526.7184526376595</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W39" t="n">
-        <v>526.7184526376595</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X39" t="n">
-        <v>526.7184526376595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
-        <v>526.7184526376595</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7306,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
         <v>829.5248650203655</v>
@@ -7363,19 +7365,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U41" t="n">
-        <v>614.4775954922324</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V41" t="n">
-        <v>406.8838132313431</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W41" t="n">
-        <v>406.8838132313431</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X41" t="n">
-        <v>199.2900309704538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>137.4989467641607</v>
+        <v>660.701031422288</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>660.701031422288</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>511.7666217610367</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>352.5291667555812</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>205.9946087824662</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>205.9946087824662</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>92.62547319004553</v>
       </c>
       <c r="I42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>423.3667595428576</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>549.2141532458947</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O42" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>720.9018483060073</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U42" t="n">
-        <v>720.9018483060073</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V42" t="n">
-        <v>720.9018483060073</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W42" t="n">
-        <v>720.9018483060073</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X42" t="n">
-        <v>513.308066045118</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y42" t="n">
-        <v>305.7142837842288</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L43" t="n">
-        <v>43.75555256277541</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M43" t="n">
-        <v>82.94359075499759</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N43" t="n">
-        <v>126.6344414104339</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0352098159517</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C44" t="n">
-        <v>224.0352098159517</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D44" t="n">
-        <v>224.0352098159517</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E44" t="n">
-        <v>224.0352098159517</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>176.2910403306274</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>639.2227743377304</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X44" t="n">
-        <v>431.628992076841</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y44" t="n">
-        <v>224.0352098159517</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>25.87268642112264</v>
+        <v>466.4486707798429</v>
       </c>
       <c r="C45" t="n">
-        <v>25.87268642112264</v>
+        <v>291.9956414987158</v>
       </c>
       <c r="D45" t="n">
-        <v>25.87268642112264</v>
+        <v>143.0612318374646</v>
       </c>
       <c r="E45" t="n">
-        <v>25.87268642112264</v>
+        <v>143.0612318374646</v>
       </c>
       <c r="F45" t="n">
-        <v>25.87268642112264</v>
+        <v>143.0612318374646</v>
       </c>
       <c r="G45" t="n">
-        <v>25.87268642112264</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>25.87268642112264</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>366.5706756325438</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>648.6540332037905</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>648.6540332037905</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V45" t="n">
-        <v>648.6540332037905</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W45" t="n">
-        <v>441.0602509429012</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="X45" t="n">
-        <v>233.4664686820119</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="Y45" t="n">
-        <v>25.87268642112264</v>
+        <v>634.6640077999109</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G46" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H46" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I46" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J46" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K46" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L46" t="n">
-        <v>43.75555256277541</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M46" t="n">
-        <v>82.94359075499759</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N46" t="n">
-        <v>126.6344414104339</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O46" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P46" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q46" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R46" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>310.4448022570774</v>
+        <v>280.7634702223003</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,22 +8063,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>265.6729592778915</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>193.4844405477277</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8222,13 +8224,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8298,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>152.8659767558044</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8459,10 +8461,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8535,16 +8537,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M9" t="n">
-        <v>163.6582985944894</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8690,16 +8692,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8772,22 +8774,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>292.5201795090609</v>
       </c>
       <c r="O12" t="n">
-        <v>143.091025904242</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8930,13 +8932,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>310.4448022570774</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>151.2801117021122</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,19 +9482,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9723,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9954,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N27" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,22 +10196,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10437,10 +10439,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,13 +11068,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11139,19 +11141,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>258.4602915813506</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11297,16 +11299,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11379,16 +11381,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>163.6582985944894</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23276,10 +23278,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>201.2648786994755</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,16 +23302,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23324,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="12">
@@ -23337,13 +23339,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23355,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>3.503687556372313</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23504,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>237.8052177150866</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23574,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>112.7505148429297</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23741,7 +23743,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>335.8613673013232</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
@@ -23753,7 +23755,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,10 +23776,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23811,7 +23813,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23865,7 +23867,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>80.4946737953592</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23890,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23941,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23969,10 +23971,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23981,10 +23983,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24029,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24048,16 +24050,16 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>50.77514371154891</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>154.3953516226522</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24093,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24108,13 +24110,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24127,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24166,7 +24168,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
         <v>86.16204325169439</v>
@@ -24175,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>93.55107118671071</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24206,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>113.6687527430239</v>
@@ -24260,19 +24262,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>26.51519937644221</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24300,10 +24302,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>104.4021340848025</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24330,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24351,7 +24353,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24364,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24406,7 +24408,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029173</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24446,16 +24448,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>185.0989125581653</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24494,7 +24496,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24503,10 +24505,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24567,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24585,10 +24587,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>131.277800949171</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>90.01494526515904</v>
       </c>
     </row>
     <row r="28">
@@ -24604,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24658,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24689,19 +24691,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>268.4601236753789</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,22 +24724,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24765,19 +24767,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>6.684197670952472</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24804,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>67.40305691116349</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24877,16 +24879,16 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
-        <v>93.55107118671071</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24914,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>362.0075757138109</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24932,7 +24934,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24965,19 +24967,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25005,10 +25007,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25017,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>58.35405270072761</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>16.70557691809773</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25081,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25132,7 +25134,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25154,10 +25156,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>312.8473232832599</v>
       </c>
       <c r="D35" t="n">
-        <v>142.3976559772408</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25196,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25211,7 +25213,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25220,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25233,13 +25235,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>102.0772230896286</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25251,10 +25253,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>68.7523812768038</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25290,7 +25292,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25363,10 +25365,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25403,7 +25405,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25433,16 +25435,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>138.6760617849701</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25451,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25470,16 +25472,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>120.504920969567</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25515,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>70.35882518776062</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25552,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25603,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25673,28 +25675,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.2178212748161</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>52.86155497130842</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>16.7857460723806</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25758,7 +25760,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25770,10 +25772,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25786,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25831,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25874,16 +25876,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>413.4932414420988</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25925,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>168.2208513361757</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
-        <v>164.2132562401886</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25956,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>14.80122932323133</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>80.05968657401547</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26041,7 +26043,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26077,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>963366.472391283</v>
+        <v>954187.8079909743</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>963366.472391283</v>
+        <v>965509.8839555114</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>963366.472391283</v>
+        <v>965509.8839555114</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>394649.1754225603</v>
+        <v>415699.4060536902</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>394649.1754225602</v>
+        <v>415699.4060536904</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>415699.4060536902</v>
+        <v>415699.4060536904</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>415699.4060536902</v>
+        <v>415699.4060536904</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>415699.4060536902</v>
+        <v>415699.4060536904</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>415699.4060536902</v>
+        <v>415699.4060536904</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>415699.4060536902</v>
+        <v>415699.4060536904</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>415699.4060536902</v>
+        <v>415699.4060536901</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>394649.1754225602</v>
+        <v>415699.4060536902</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>394649.1754225604</v>
+        <v>415699.4060536904</v>
       </c>
     </row>
   </sheetData>
@@ -26314,19 +26316,19 @@
         <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="E2" t="n">
-        <v>197197.0522936644</v>
+        <v>207700.8406641654</v>
       </c>
       <c r="F2" t="n">
-        <v>197197.0522936645</v>
+        <v>207700.8406641654</v>
       </c>
       <c r="G2" t="n">
-        <v>207700.8406641655</v>
+        <v>207700.8406641654</v>
       </c>
       <c r="H2" t="n">
         <v>207700.8406641654</v>
@@ -26344,16 +26346,16 @@
         <v>207700.8406641654</v>
       </c>
       <c r="M2" t="n">
-        <v>207700.8406641654</v>
+        <v>207700.8406641655</v>
       </c>
       <c r="N2" t="n">
         <v>207700.8406641654</v>
       </c>
       <c r="O2" t="n">
-        <v>197197.0522936645</v>
+        <v>207700.8406641654</v>
       </c>
       <c r="P2" t="n">
-        <v>197197.0522936645</v>
+        <v>207700.8406641654</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68873.75658168984</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>60576.32218666811</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9729.042974167098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>53772.51089020943</v>
+        <v>14001.23214027929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>48256.95293363261</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>328386.1670003451</v>
+        <v>360174.3645198887</v>
       </c>
       <c r="C4" t="n">
-        <v>328386.1670003452</v>
+        <v>320962.9529903556</v>
       </c>
       <c r="D4" t="n">
-        <v>328386.1670003452</v>
+        <v>320962.9529903556</v>
       </c>
       <c r="E4" t="n">
-        <v>39848.29285289707</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="F4" t="n">
-        <v>39848.29285289707</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="G4" t="n">
         <v>42017.42535589615</v>
@@ -26436,28 +26438,28 @@
         <v>42017.42535589615</v>
       </c>
       <c r="I4" t="n">
+        <v>42017.42535589614</v>
+      </c>
+      <c r="J4" t="n">
         <v>42017.42535589615</v>
-      </c>
-      <c r="J4" t="n">
-        <v>42017.42535589614</v>
       </c>
       <c r="K4" t="n">
         <v>42017.42535589615</v>
       </c>
       <c r="L4" t="n">
+        <v>42017.42535589615</v>
+      </c>
+      <c r="M4" t="n">
         <v>42017.42535589614</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>42017.42535589614</v>
+      </c>
+      <c r="O4" t="n">
         <v>42017.42535589615</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>42017.42535589615</v>
-      </c>
-      <c r="O4" t="n">
-        <v>39848.29285289707</v>
-      </c>
-      <c r="P4" t="n">
-        <v>39848.29285289707</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46123.08494184745</v>
+        <v>36881.16176380494</v>
       </c>
       <c r="C5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69768.09764129476</v>
+        <v>98162.30062208217</v>
       </c>
       <c r="C6" t="n">
-        <v>138641.8542229845</v>
+        <v>83330.56222439162</v>
       </c>
       <c r="D6" t="n">
-        <v>138641.8542229845</v>
+        <v>143906.8844110597</v>
       </c>
       <c r="E6" t="n">
-        <v>144853.2744989199</v>
+        <v>151029.7465445076</v>
       </c>
       <c r="F6" t="n">
-        <v>144853.27449892</v>
+        <v>151029.7465445076</v>
       </c>
       <c r="G6" t="n">
-        <v>141300.7035703406</v>
+        <v>151029.7465445076</v>
       </c>
       <c r="H6" t="n">
         <v>151029.7465445076</v>
@@ -26543,25 +26545,25 @@
         <v>151029.7465445076</v>
       </c>
       <c r="J6" t="n">
-        <v>97257.23565429817</v>
+        <v>137028.5144042283</v>
       </c>
       <c r="K6" t="n">
-        <v>151029.7465445077</v>
+        <v>102772.793610875</v>
       </c>
       <c r="L6" t="n">
         <v>151029.7465445076</v>
       </c>
       <c r="M6" t="n">
-        <v>151029.7465445076</v>
+        <v>151029.7465445077</v>
       </c>
       <c r="N6" t="n">
         <v>151029.7465445076</v>
       </c>
       <c r="O6" t="n">
-        <v>144853.27449892</v>
+        <v>151029.7465445076</v>
       </c>
       <c r="P6" t="n">
-        <v>144853.27449892</v>
+        <v>151029.7465445076</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,31 +27378,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>329.2213126535308</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>311.7603627610578</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>212.8595420456369</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>201.358201303431</v>
+        <v>375.0449477048828</v>
       </c>
       <c r="G2" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>169.5833205541816</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27503,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>53.77058992693726</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>146.6521996848718</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>172.4288530710251</v>
       </c>
       <c r="V3" t="n">
-        <v>113.4971061691875</v>
+        <v>179.2880581394755</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>113.7342920886781</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27588,7 +27590,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>174.4330604183317</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27597,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>242.2195147380239</v>
+        <v>263.082529506229</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,16 +27621,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>314.2067624875478</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>207.4499279476357</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27676,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,13 +27697,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>91.71913612111037</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27716,7 +27718,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.82786452690797</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>223.8925075390896</v>
+        <v>142.7145806719437</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27901,13 +27903,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>17.57800512585095</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27950,7 +27952,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27986,19 +27988,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V9" t="n">
-        <v>27.28274271114486</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>114.896091999913</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28014,13 +28016,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>81.03173866048648</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>127.1185794980173</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,13 +34944,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35018,19 +35020,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>21.52426467247106</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35179,10 +35181,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35255,16 +35257,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M9" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35410,16 +35412,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35492,22 +35494,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="O12" t="n">
-        <v>0.494781459797586</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,10 +35655,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>81.03173866048648</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>12.72573192223801</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>55.51629994036219</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>55.51629994036219</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36443,10 +36445,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>169.9067907798017</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36674,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N27" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,22 +36916,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37157,10 +37159,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,13 +37788,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37859,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>127.1185794980173</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38017,16 +38019,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38099,16 +38101,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>21.52426467247106</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1119353.531399453</v>
+        <v>1050502.234958016</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404855</v>
+        <v>14661612.74404854</v>
       </c>
     </row>
     <row r="9">
@@ -658,31 +658,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="C2" t="n">
+      <c r="G2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>31.83109803682869</v>
-      </c>
-      <c r="G2" t="n">
-        <v>15.30273751513505</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>35.18454619735122</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.38724422570588</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="U3" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="V3" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
         <v>53.51252900994975</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>23.44046883036203</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>68.21015448122992</v>
       </c>
     </row>
     <row r="6">
@@ -977,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -995,7 +995,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>76.44787677172188</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>24.7554325077908</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>240.0192609915369</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>223.4994981799305</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1226,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>49.3111039422953</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>77.05969266199882</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>14.83685490770582</v>
       </c>
     </row>
     <row r="11">
@@ -1369,76 +1369,76 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C11" t="n">
+      <c r="V11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,28 +1451,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>45.28887413297245</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1508,13 +1508,13 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>176.5694330245228</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1624,13 +1624,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1688,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>95.18859219905767</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1739,13 +1739,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1855,64 +1855,64 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>220.2131257424249</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1925,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1979,16 +1979,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2046,16 +2046,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2083,73 +2083,73 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.26531605719669</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>121.9333552767668</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2213,22 +2213,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="22">
@@ -2241,52 +2241,52 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2323,20 +2323,20 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>125.2226902263469</v>
       </c>
       <c r="C24" t="n">
-        <v>146.1932996118735</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2462,10 +2462,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,26 +2554,26 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>69.90197782146217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2690,19 +2690,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>115.6677505121453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2718,64 +2718,64 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,16 +2794,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>94.41048699370604</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>104.2801141926743</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>65.1306020652372</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -2939,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,73 +3028,73 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="C32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>241.0142888776591</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3119,10 +3119,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>27.26454476027342</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3155,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>167.5873293802472</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3173,10 +3173,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3246,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>52.42556848774763</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3362,13 +3362,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.64425157461128</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="37">
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,76 +3502,76 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="S38" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3629,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>29.79900896488251</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>189.6723709928539</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3647,7 +3647,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3663,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3751,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3784,10 +3784,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -3796,13 +3796,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3824,22 +3824,22 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>10.60363392600343</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>72.61088677903447</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,22 +3872,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3900,58 +3900,58 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3991,55 +3991,55 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I44" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>241.0142888776591</v>
@@ -4061,19 +4061,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>122.5422878399793</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>79.16945744619279</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4155,49 +4155,49 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>214.050116039799</v>
+      </c>
+      <c r="C2" t="n">
+        <v>214.050116039799</v>
+      </c>
+      <c r="D2" t="n">
+        <v>214.050116039799</v>
+      </c>
+      <c r="E2" t="n">
+        <v>214.050116039799</v>
+      </c>
+      <c r="F2" t="n">
+        <v>159.9970564337892</v>
+      </c>
+      <c r="G2" t="n">
         <v>105.9439968277793</v>
       </c>
-      <c r="C2" t="n">
+      <c r="H2" t="n">
         <v>51.89093722176946</v>
       </c>
-      <c r="D2" t="n">
-        <v>51.89093722176946</v>
-      </c>
-      <c r="E2" t="n">
-        <v>51.89093722176946</v>
-      </c>
-      <c r="F2" t="n">
-        <v>19.73831294214452</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4.28100232079598</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4.28100232079598</v>
-      </c>
       <c r="I2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>57.25840604064623</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L2" t="n">
         <v>57.25840604064623</v>
       </c>
       <c r="M2" t="n">
-        <v>57.25840604064623</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N2" t="n">
-        <v>108.0953086000985</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
@@ -4360,22 +4360,22 @@
         <v>214.050116039799</v>
       </c>
       <c r="T2" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U2" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="V2" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="W2" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="X2" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Y2" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.035134973581694</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="C3" t="n">
-        <v>5.035134973581694</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="D3" t="n">
-        <v>5.035134973581694</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="E3" t="n">
-        <v>5.035134973581694</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="F3" t="n">
-        <v>5.035134973581694</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="G3" t="n">
-        <v>5.035134973581694</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="H3" t="n">
         <v>5.035134973581694</v>
@@ -4415,46 +4415,46 @@
         <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M3" t="n">
-        <v>55.11790488024824</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N3" t="n">
-        <v>55.11790488024824</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O3" t="n">
-        <v>108.0953086000985</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>167.1943137916113</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>167.1943137916113</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
-        <v>113.1412541856014</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U3" t="n">
-        <v>59.08819457959154</v>
+        <v>214.050116039799</v>
       </c>
       <c r="V3" t="n">
-        <v>5.035134973581694</v>
+        <v>214.050116039799</v>
       </c>
       <c r="W3" t="n">
-        <v>5.035134973581694</v>
+        <v>214.050116039799</v>
       </c>
       <c r="X3" t="n">
-        <v>5.035134973581694</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.035134973581694</v>
+        <v>159.9970564337892</v>
       </c>
     </row>
     <row r="4">
@@ -4518,22 +4518,22 @@
         <v>136.0643627756056</v>
       </c>
       <c r="T4" t="n">
-        <v>82.01130316959576</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="U4" t="n">
-        <v>82.01130316959576</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="V4" t="n">
-        <v>82.01130316959576</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="W4" t="n">
-        <v>58.33406192680583</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="X4" t="n">
-        <v>58.33406192680583</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.33406192680583</v>
+        <v>112.3871215328157</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>559.1338160830064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C5" t="n">
-        <v>559.1338160830064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D5" t="n">
-        <v>518.2486856454962</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E5" t="n">
-        <v>518.2486856454962</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
         <v>31.35113235729608</v>
@@ -4594,25 +4594,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X5" t="n">
-        <v>559.1338160830064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y5" t="n">
-        <v>559.1338160830064</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>862.8876260635219</v>
+        <v>655.1273272985679</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>655.1273272985679</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>655.1273272985679</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>495.8898722931124</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>349.3553143199974</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>210.6244889026129</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>97.25535331019226</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4652,19 +4652,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4691,7 +4691,7 @@
         <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>862.8876260635219</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41.68395448076474</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C8" t="n">
-        <v>41.68395448076474</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D8" t="n">
-        <v>41.68395448076474</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E8" t="n">
-        <v>41.68395448076474</v>
+        <v>485.167420504237</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>527.5764290961142</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U8" t="n">
-        <v>527.5764290961142</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V8" t="n">
-        <v>527.5764290961142</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W8" t="n">
-        <v>527.5764290961142</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X8" t="n">
-        <v>527.5764290961142</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y8" t="n">
-        <v>284.1276524520142</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>510.6151429241127</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>510.6151429241127</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>234.810827406191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O9" t="n">
         <v>712.019119383956</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U9" t="n">
-        <v>914.2479596093278</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V9" t="n">
-        <v>679.0958513775852</v>
+        <v>510.6151429241127</v>
       </c>
       <c r="W9" t="n">
-        <v>435.6470747334852</v>
+        <v>510.6151429241127</v>
       </c>
       <c r="X9" t="n">
-        <v>227.7955745279523</v>
+        <v>510.6151429241127</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>510.6151429241127</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>946.3215033461793</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
         <v>19.28114311021272</v>
@@ -5065,28 +5065,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y11" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>862.8876260635219</v>
+        <v>307.1033079837604</v>
       </c>
       <c r="C12" t="n">
-        <v>817.1412885554689</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D12" t="n">
-        <v>668.2068788942177</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E12" t="n">
-        <v>508.9694238887622</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5126,10 +5126,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>383.2428491569326</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N12" t="n">
         <v>542.809531908403</v>
@@ -5144,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>862.8876260635219</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W12" t="n">
-        <v>862.8876260635219</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X12" t="n">
-        <v>862.8876260635219</v>
+        <v>307.1033079837604</v>
       </c>
       <c r="Y12" t="n">
-        <v>862.8876260635219</v>
+        <v>307.1033079837604</v>
       </c>
     </row>
     <row r="13">
@@ -5184,22 +5184,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="E14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="F14" t="n">
-        <v>720.6083788665362</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="G14" t="n">
-        <v>477.1596022224361</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="H14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5302,28 +5302,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>352.2654233565326</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>352.2654233565326</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>352.2654233565326</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>205.7308653834175</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P15" t="n">
         <v>894.6625969973069</v>
@@ -5387,22 +5387,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>526.7184526376595</v>
       </c>
     </row>
     <row r="16">
@@ -5415,28 +5415,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5627,19 +5627,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="19">
@@ -5694,13 +5694,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>509.4769954460863</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C20" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5779,25 +5779,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>752.9257720901863</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V20" t="n">
-        <v>752.9257720901863</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W20" t="n">
-        <v>752.9257720901863</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X20" t="n">
-        <v>752.9257720901863</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y20" t="n">
-        <v>509.4769954460863</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>142.4461484402802</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M21" t="n">
         <v>542.809531908403</v>
@@ -5861,22 +5861,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>761.8705608694022</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>518.4217842253022</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>518.4217842253022</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y21" t="n">
-        <v>310.6614854603483</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5971,16 +5971,16 @@
         <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6013,25 +6013,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
         <v>262.7299197543128</v>
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>964.0571555106362</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C24" t="n">
-        <v>816.3871559026832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>667.4527462414319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6080,13 +6080,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6101,19 +6101,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W24" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X24" t="n">
-        <v>964.0571555106362</v>
+        <v>527.9820370414925</v>
       </c>
       <c r="Y24" t="n">
-        <v>964.0571555106362</v>
+        <v>320.2217382765386</v>
       </c>
     </row>
     <row r="25">
@@ -6168,22 +6168,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G26" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G26" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6247,25 +6247,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
         <v>506.1786963984129</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>193.7341723913397</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>893.4490971051189</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>893.4490971051189</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>691.2625024638849</v>
       </c>
       <c r="U27" t="n">
-        <v>761.8705608694022</v>
+        <v>463.038884200274</v>
       </c>
       <c r="V27" t="n">
-        <v>761.8705608694022</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="W27" t="n">
-        <v>518.4217842253022</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X27" t="n">
-        <v>310.5702840197694</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y27" t="n">
-        <v>193.7341723913397</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E29" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E29" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6551,13 +6551,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>858.7237068311672</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>858.7237068311672</v>
+        <v>898.2686685760532</v>
       </c>
       <c r="U30" t="n">
-        <v>630.5000885675563</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V30" t="n">
-        <v>395.3479803358136</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W30" t="n">
-        <v>395.3479803358136</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X30" t="n">
-        <v>187.4964801302808</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
-        <v>187.4964801302808</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6645,19 +6645,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y32" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>318.0035561858384</v>
+        <v>206.8126749707503</v>
       </c>
       <c r="C33" t="n">
-        <v>318.0035561858384</v>
+        <v>206.8126749707503</v>
       </c>
       <c r="D33" t="n">
-        <v>318.0035561858384</v>
+        <v>206.8126749707503</v>
       </c>
       <c r="E33" t="n">
-        <v>158.7661011803829</v>
+        <v>47.57521996529482</v>
       </c>
       <c r="F33" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
         <v>20.03527576299844</v>
@@ -6791,7 +6791,7 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
         <v>781.4136778972854</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>318.0035561858384</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V33" t="n">
-        <v>318.0035561858384</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W33" t="n">
-        <v>318.0035561858384</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X33" t="n">
-        <v>318.0035561858384</v>
+        <v>582.7883107557723</v>
       </c>
       <c r="Y33" t="n">
-        <v>318.0035561858384</v>
+        <v>375.0280119908184</v>
       </c>
     </row>
     <row r="34">
@@ -6894,7 +6894,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F35" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F35" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>313.4946457291688</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>313.4946457291688</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>313.4946457291688</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>154.2571907237133</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>154.2571907237133</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>154.2571907237133</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>40.88805513129266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7025,43 +7025,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>689.4702815141908</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>689.4702815141908</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>689.4702815141908</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>481.7099827492369</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7128,16 +7128,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
         <v>19.28114311021272</v>
@@ -7153,16 +7153,16 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7256,16 +7256,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
+        <v>234.810827406191</v>
+      </c>
+      <c r="N39" t="n">
         <v>473.4149733950735</v>
-      </c>
-      <c r="N39" t="n">
-        <v>712.019119383956</v>
       </c>
       <c r="O39" t="n">
         <v>712.019119383956</v>
@@ -7277,22 +7277,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>933.9571464551993</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>933.9571464551993</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>933.9571464551993</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="U39" t="n">
-        <v>705.7335281915883</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V39" t="n">
-        <v>470.5814199598456</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W39" t="n">
-        <v>227.1326433157456</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X39" t="n">
         <v>19.28114311021272</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="I41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>942.6594228129348</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>731.528039392485</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T41" t="n">
-        <v>506.1786963984129</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U41" t="n">
-        <v>262.7299197543128</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V41" t="n">
-        <v>262.7299197543128</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W41" t="n">
-        <v>19.28114311021272</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X41" t="n">
-        <v>19.28114311021272</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y41" t="n">
-        <v>19.28114311021272</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>660.701031422288</v>
+        <v>176.5264424227252</v>
       </c>
       <c r="C42" t="n">
-        <v>660.701031422288</v>
+        <v>176.5264424227252</v>
       </c>
       <c r="D42" t="n">
-        <v>511.7666217610367</v>
+        <v>176.5264424227252</v>
       </c>
       <c r="E42" t="n">
-        <v>352.5291667555812</v>
+        <v>176.5264424227252</v>
       </c>
       <c r="F42" t="n">
-        <v>205.9946087824662</v>
+        <v>29.99188444961013</v>
       </c>
       <c r="G42" t="n">
-        <v>205.9946087824662</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>92.62547319004553</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
         <v>19.28114311021272</v>
@@ -7493,22 +7493,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7520,22 +7520,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V42" t="n">
-        <v>660.701031422288</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W42" t="n">
-        <v>660.701031422288</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X42" t="n">
-        <v>660.701031422288</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y42" t="n">
-        <v>660.701031422288</v>
+        <v>176.5264424227252</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
         <v>19.28114311021272</v>
@@ -7678,22 +7678,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W44" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X44" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y44" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>466.4486707798429</v>
+        <v>420.237879300003</v>
       </c>
       <c r="C45" t="n">
-        <v>291.9956414987158</v>
+        <v>245.784850018876</v>
       </c>
       <c r="D45" t="n">
-        <v>143.0612318374646</v>
+        <v>245.784850018876</v>
       </c>
       <c r="E45" t="n">
-        <v>143.0612318374646</v>
+        <v>245.784850018876</v>
       </c>
       <c r="F45" t="n">
-        <v>143.0612318374646</v>
+        <v>99.250292045761</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>99.250292045761</v>
       </c>
       <c r="H45" t="n">
         <v>19.28114311021272</v>
@@ -7736,43 +7736,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U45" t="n">
-        <v>634.6640077999109</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V45" t="n">
-        <v>634.6640077999109</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W45" t="n">
-        <v>634.6640077999109</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X45" t="n">
-        <v>634.6640077999109</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y45" t="n">
-        <v>634.6640077999109</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>273.6023800549303</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>280.7634702223003</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>283.6107404316365</v>
+        <v>281.4486180473961</v>
       </c>
       <c r="P2" t="n">
-        <v>284.7455247652193</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8063,22 +8063,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
-        <v>193.4844405477277</v>
+        <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
         <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>187.48693642428</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8300,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8534,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>229.6373335557741</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8774,13 +8774,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N12" t="n">
-        <v>292.5201795090609</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -9008,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9245,13 +9245,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,13 +9482,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
@@ -9728,7 +9728,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10199,16 +10199,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O30" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10439,10 +10439,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O33" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10673,19 +10673,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,19 +10904,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>241.9453110519923</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,16 +11150,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O42" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11384,19 +11384,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23305,28 +23305,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>268.906261701593</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23339,28 +23339,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>127.4196248553433</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23396,13 +23396,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>29.20355217895468</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23512,13 +23512,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>245.0643151220611</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23542,10 +23542,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23576,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>42.15492496415297</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23627,13 +23627,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23743,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23785,13 +23785,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>107.53913272771</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23813,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23867,16 +23867,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23934,16 +23934,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23983,7 +23983,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -23992,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>8.683973297415827</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>50.77514371154891</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24101,22 +24101,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="22">
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24174,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24211,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24223,7 +24223,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24253,28 +24253,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>160.679581861839</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24284,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>41.31049342352048</v>
       </c>
       <c r="C24" t="n">
-        <v>26.51519937644221</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24341,7 +24341,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24350,10 +24350,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24408,7 +24408,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24417,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>239.4980740029173</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24454,13 +24454,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24496,19 +24496,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>30.25585633118096</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24578,19 +24578,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>90.01494526515904</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,16 +24682,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24727,19 +24727,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>128.6853625704253</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24809,10 +24809,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>67.40305691116349</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>135.0341266295844</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24885,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24934,7 +24934,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24982,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
         <v>145.2236497783945</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25007,10 +25007,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>117.8046676331105</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>58.35405270072761</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25061,10 +25061,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25134,10 +25134,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>312.8473232832599</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25241,7 +25241,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25250,13 +25250,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>68.7523812768038</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="37">
@@ -25368,7 +25368,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25405,7 +25405,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25438,28 +25438,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>70.35882518776062</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>10.49235770196768</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25551,10 +25551,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D40" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25639,16 +25639,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>199.2828334142263</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25672,10 +25672,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>128.6853625704253</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25684,13 +25684,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25712,22 +25712,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>126.7398832372072</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>16.7857460723806</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25760,22 +25760,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25839,7 +25839,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25867,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.4932414420988</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25918,16 +25918,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>128.71681180081</v>
@@ -25949,19 +25949,19 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>14.80122932323133</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>33.06598679030367</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26043,7 +26043,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>415699.4060536902</v>
+        <v>415699.4060536901</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>415699.4060536904</v>
+        <v>415699.4060536902</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>415699.4060536904</v>
+        <v>415699.4060536902</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>415699.4060536904</v>
+        <v>415699.4060536902</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>415699.4060536904</v>
+        <v>415699.4060536902</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>415699.4060536902</v>
+        <v>415699.4060536904</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>415699.4060536904</v>
+        <v>415699.4060536902</v>
       </c>
     </row>
     <row r="14">
@@ -26316,16 +26316,16 @@
         <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
+        <v>513151.1061651771</v>
+      </c>
+      <c r="D2" t="n">
         <v>513151.106165177</v>
-      </c>
-      <c r="D2" t="n">
-        <v>513151.1061651769</v>
       </c>
       <c r="E2" t="n">
         <v>207700.8406641654</v>
       </c>
       <c r="F2" t="n">
-        <v>207700.8406641654</v>
+        <v>207700.8406641655</v>
       </c>
       <c r="G2" t="n">
         <v>207700.8406641654</v>
@@ -26340,13 +26340,13 @@
         <v>207700.8406641654</v>
       </c>
       <c r="K2" t="n">
-        <v>207700.8406641655</v>
+        <v>207700.8406641654</v>
       </c>
       <c r="L2" t="n">
         <v>207700.8406641654</v>
       </c>
       <c r="M2" t="n">
-        <v>207700.8406641655</v>
+        <v>207700.8406641654</v>
       </c>
       <c r="N2" t="n">
         <v>207700.8406641654</v>
@@ -26438,7 +26438,7 @@
         <v>42017.42535589615</v>
       </c>
       <c r="I4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="J4" t="n">
         <v>42017.42535589615</v>
@@ -26450,10 +26450,10 @@
         <v>42017.42535589615</v>
       </c>
       <c r="M4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="N4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="O4" t="n">
         <v>42017.42535589615</v>
@@ -26524,46 +26524,46 @@
         <v>98162.30062208217</v>
       </c>
       <c r="C6" t="n">
-        <v>83330.56222439162</v>
+        <v>83330.56222439173</v>
       </c>
       <c r="D6" t="n">
-        <v>143906.8844110597</v>
+        <v>143906.8844110598</v>
       </c>
       <c r="E6" t="n">
-        <v>151029.7465445076</v>
+        <v>138811.7359244672</v>
       </c>
       <c r="F6" t="n">
-        <v>151029.7465445076</v>
+        <v>138811.7359244672</v>
       </c>
       <c r="G6" t="n">
-        <v>151029.7465445076</v>
+        <v>138811.7359244671</v>
       </c>
       <c r="H6" t="n">
-        <v>151029.7465445076</v>
+        <v>138811.7359244671</v>
       </c>
       <c r="I6" t="n">
-        <v>151029.7465445076</v>
+        <v>138811.7359244671</v>
       </c>
       <c r="J6" t="n">
-        <v>137028.5144042283</v>
+        <v>124810.5037841878</v>
       </c>
       <c r="K6" t="n">
-        <v>102772.793610875</v>
+        <v>90554.7829908345</v>
       </c>
       <c r="L6" t="n">
-        <v>151029.7465445076</v>
+        <v>138811.7359244671</v>
       </c>
       <c r="M6" t="n">
-        <v>151029.7465445077</v>
+        <v>138811.7359244671</v>
       </c>
       <c r="N6" t="n">
-        <v>151029.7465445076</v>
+        <v>138811.7359244671</v>
       </c>
       <c r="O6" t="n">
-        <v>151029.7465445076</v>
+        <v>138811.7359244672</v>
       </c>
       <c r="P6" t="n">
-        <v>151029.7465445076</v>
+        <v>138811.7359244672</v>
       </c>
     </row>
   </sheetData>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>329.2213126535308</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>311.7603627610578</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,19 +27390,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>375.0449477048828</v>
+        <v>353.3635167317617</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>361.7902085051853</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>285.9622731058174</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>175.2913433730547</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>169.5833205541816</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27460,7 +27460,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>119.195969978366</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27472,10 +27472,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>90.95627293750474</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>58.72291522654671</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27505,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.77058992693726</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>146.6521996848718</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>172.4288530710251</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>179.2880581394755</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>152.2604561935277</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>126.3194511719875</v>
       </c>
       <c r="C4" t="n">
         <v>113.7342920886781</v>
@@ -27590,7 +27590,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>174.4330604183317</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.082529506229</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>195.1441845217328</v>
       </c>
     </row>
     <row r="5">
@@ -27621,16 +27621,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>314.2067624875478</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>318.0277841748236</v>
       </c>
     </row>
     <row r="6">
@@ -27697,10 +27697,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27715,7 +27715,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>12.9487560796932</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27763,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,13 +27815,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>200.9542228812464</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>142.7145806719437</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>183.3765475617809</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,10 +27873,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,13 +27897,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27937,7 +27937,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27946,16 +27946,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27982,25 +27982,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>176.6302781386795</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>155.7408944874264</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28034,10 +28034,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>203.747798444389</v>
       </c>
     </row>
     <row r="11">
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
-        <v>51.35040662570935</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
-        <v>53.51252900994975</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
-        <v>51.35040662570935</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="O3" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35020,22 +35020,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>43.28534947792182</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35421,7 +35421,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35494,13 +35494,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N12" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35965,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35983,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36457,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N30" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37159,10 +37159,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O33" t="n">
-        <v>55.51629994036219</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37393,19 +37393,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37624,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>99.81127712997396</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
@@ -37870,16 +37870,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O42" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38104,19 +38104,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
